--- a/data/pca/factorExposure/factorExposure_2016-08-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01241756757887091</v>
+        <v>0.01374928102889353</v>
       </c>
       <c r="C2">
-        <v>-0.05554402068784392</v>
+        <v>0.04349705354529764</v>
       </c>
       <c r="D2">
-        <v>-0.03620629517868897</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06452344232935758</v>
+      </c>
+      <c r="E2">
+        <v>-0.05616293984937189</v>
+      </c>
+      <c r="F2">
+        <v>0.07888746418664672</v>
+      </c>
+      <c r="G2">
+        <v>-0.03507415114183151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0610234702773898</v>
+        <v>0.03113252071694823</v>
       </c>
       <c r="C3">
-        <v>-0.09239735123201895</v>
+        <v>0.08155360526467398</v>
       </c>
       <c r="D3">
-        <v>-0.08636697983192414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09061515503556597</v>
+      </c>
+      <c r="E3">
+        <v>-0.06484287518376286</v>
+      </c>
+      <c r="F3">
+        <v>0.008611413337780097</v>
+      </c>
+      <c r="G3">
+        <v>0.03958792187016106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06606111463395342</v>
+        <v>0.05770638972047626</v>
       </c>
       <c r="C4">
-        <v>-0.05771383526823276</v>
+        <v>0.06628406745227777</v>
       </c>
       <c r="D4">
-        <v>-0.02440330349249424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05865789385520194</v>
+      </c>
+      <c r="E4">
+        <v>-0.05406273452427544</v>
+      </c>
+      <c r="F4">
+        <v>0.08684648585086185</v>
+      </c>
+      <c r="G4">
+        <v>0.03713356515430603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04184871231744285</v>
+        <v>0.0354901754312175</v>
       </c>
       <c r="C6">
-        <v>-0.03622024644008617</v>
+        <v>0.03177281712319284</v>
       </c>
       <c r="D6">
-        <v>-0.02880529412250982</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0657969000797336</v>
+      </c>
+      <c r="E6">
+        <v>-0.06149013520334579</v>
+      </c>
+      <c r="F6">
+        <v>0.068542023061176</v>
+      </c>
+      <c r="G6">
+        <v>0.02185804596842539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02166202267348774</v>
+        <v>0.01916068452924272</v>
       </c>
       <c r="C7">
-        <v>-0.04361712493279331</v>
+        <v>0.0387024811254708</v>
       </c>
       <c r="D7">
-        <v>0.004248945811570252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03717474542559231</v>
+      </c>
+      <c r="E7">
+        <v>-0.03591177029064958</v>
+      </c>
+      <c r="F7">
+        <v>0.1062461904155887</v>
+      </c>
+      <c r="G7">
+        <v>0.006082207800276179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001900280892377633</v>
+        <v>0.003172924565133528</v>
       </c>
       <c r="C8">
-        <v>-0.02681659739509212</v>
+        <v>0.02902812814154998</v>
       </c>
       <c r="D8">
-        <v>-0.03143552949637009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03400171631175011</v>
+      </c>
+      <c r="E8">
+        <v>-0.04326138417480024</v>
+      </c>
+      <c r="F8">
+        <v>0.04954425919472587</v>
+      </c>
+      <c r="G8">
+        <v>0.009896368279566864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03613152710305074</v>
+        <v>0.0365284585256443</v>
       </c>
       <c r="C9">
-        <v>-0.04173296066641893</v>
+        <v>0.05275188091312091</v>
       </c>
       <c r="D9">
-        <v>-0.01164953203342959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04333335028898372</v>
+      </c>
+      <c r="E9">
+        <v>-0.04474816097796241</v>
+      </c>
+      <c r="F9">
+        <v>0.09158008336135991</v>
+      </c>
+      <c r="G9">
+        <v>0.02180470484684683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06864132236122394</v>
+        <v>0.09843399521368897</v>
       </c>
       <c r="C10">
-        <v>0.1957173483385005</v>
+        <v>-0.1951167654171502</v>
       </c>
       <c r="D10">
-        <v>0.0004182478597344159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.002009592880931102</v>
+      </c>
+      <c r="E10">
+        <v>-0.04532471487780299</v>
+      </c>
+      <c r="F10">
+        <v>0.04071500504915578</v>
+      </c>
+      <c r="G10">
+        <v>0.008593147388909572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04238962846068461</v>
+        <v>0.03655440540125028</v>
       </c>
       <c r="C11">
-        <v>-0.05381906792461426</v>
+        <v>0.05116813254491676</v>
       </c>
       <c r="D11">
-        <v>-0.007078469302235576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03375308830350692</v>
+      </c>
+      <c r="E11">
+        <v>-0.007326988268510545</v>
+      </c>
+      <c r="F11">
+        <v>0.06626356539637919</v>
+      </c>
+      <c r="G11">
+        <v>0.01425659284464318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04193244256449756</v>
+        <v>0.03743478996059049</v>
       </c>
       <c r="C12">
-        <v>-0.04861853863158157</v>
+        <v>0.04726293416064821</v>
       </c>
       <c r="D12">
-        <v>-0.0004593310664405292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02578336406440492</v>
+      </c>
+      <c r="E12">
+        <v>-0.01584216178445096</v>
+      </c>
+      <c r="F12">
+        <v>0.06906101345623621</v>
+      </c>
+      <c r="G12">
+        <v>0.01116959621202828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01698466534383643</v>
+        <v>0.0121832810166499</v>
       </c>
       <c r="C13">
-        <v>-0.04703912349896203</v>
+        <v>0.04283244736080093</v>
       </c>
       <c r="D13">
-        <v>-0.0185989223304273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06159238466613796</v>
+      </c>
+      <c r="E13">
+        <v>-0.06606261483817305</v>
+      </c>
+      <c r="F13">
+        <v>0.1114976511900404</v>
+      </c>
+      <c r="G13">
+        <v>0.01792876852280881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008849119466939207</v>
+        <v>0.005039815121132104</v>
       </c>
       <c r="C14">
-        <v>-0.03463430789305614</v>
+        <v>0.03215275802211497</v>
       </c>
       <c r="D14">
-        <v>0.01715772454999484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02576108374938542</v>
+      </c>
+      <c r="E14">
+        <v>-0.02840178087026328</v>
+      </c>
+      <c r="F14">
+        <v>0.09705969803165078</v>
+      </c>
+      <c r="G14">
+        <v>-0.008780620390052122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001409255091412953</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003536353135038866</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004913933162567804</v>
+      </c>
+      <c r="E15">
+        <v>-0.0006370580156885057</v>
+      </c>
+      <c r="F15">
+        <v>0.003069675189361419</v>
+      </c>
+      <c r="G15">
+        <v>-0.001198676170151364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03824200733253291</v>
+        <v>0.03405129674621327</v>
       </c>
       <c r="C16">
-        <v>-0.04566299259871249</v>
+        <v>0.04519782816946169</v>
       </c>
       <c r="D16">
-        <v>-0.006117116537521051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02778380862501304</v>
+      </c>
+      <c r="E16">
+        <v>-0.02148616378914563</v>
+      </c>
+      <c r="F16">
+        <v>0.07066877526992496</v>
+      </c>
+      <c r="G16">
+        <v>0.0006972139278591654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02670449842644052</v>
+        <v>0.01669522497841837</v>
       </c>
       <c r="C19">
-        <v>-0.06214910937365141</v>
+        <v>0.05095580996274968</v>
       </c>
       <c r="D19">
-        <v>-0.07167209873926134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09316416852979831</v>
+      </c>
+      <c r="E19">
+        <v>-0.08460447768695266</v>
+      </c>
+      <c r="F19">
+        <v>0.08979940862228497</v>
+      </c>
+      <c r="G19">
+        <v>-0.02291631315982483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01841151356224697</v>
+        <v>0.0135701601907118</v>
       </c>
       <c r="C20">
-        <v>-0.04509653258741638</v>
+        <v>0.04118869376654924</v>
       </c>
       <c r="D20">
-        <v>-0.01655912706589421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03902396216356636</v>
+      </c>
+      <c r="E20">
+        <v>-0.05853933596350342</v>
+      </c>
+      <c r="F20">
+        <v>0.08811921029742247</v>
+      </c>
+      <c r="G20">
+        <v>0.004417901104350402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01153547116993059</v>
+        <v>0.008921629576598058</v>
       </c>
       <c r="C21">
-        <v>-0.04878633899911351</v>
+        <v>0.04529708673510363</v>
       </c>
       <c r="D21">
-        <v>-0.03108230612761205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06624195718478983</v>
+      </c>
+      <c r="E21">
+        <v>-0.07336701691853303</v>
+      </c>
+      <c r="F21">
+        <v>0.1342891171735081</v>
+      </c>
+      <c r="G21">
+        <v>0.005697374438684633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001823710903407836</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02327996551699234</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03585901060279508</v>
+      </c>
+      <c r="E22">
+        <v>-0.02133246790387264</v>
+      </c>
+      <c r="F22">
+        <v>0.02012814581726799</v>
+      </c>
+      <c r="G22">
+        <v>0.03867760405620771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001891925643766166</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0234030473784905</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03553864038387928</v>
+      </c>
+      <c r="E23">
+        <v>-0.02160502662643362</v>
+      </c>
+      <c r="F23">
+        <v>0.01999798612558455</v>
+      </c>
+      <c r="G23">
+        <v>0.03888156837500397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03393657511895924</v>
+        <v>0.03375919312351098</v>
       </c>
       <c r="C24">
-        <v>-0.05023085259963005</v>
+        <v>0.05319665922094909</v>
       </c>
       <c r="D24">
-        <v>-0.004296461547435584</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02667888857072832</v>
+      </c>
+      <c r="E24">
+        <v>-0.01880319235014001</v>
+      </c>
+      <c r="F24">
+        <v>0.07859269498529244</v>
+      </c>
+      <c r="G24">
+        <v>0.008036563451257098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04812782512879649</v>
+        <v>0.04416516667881725</v>
       </c>
       <c r="C25">
-        <v>-0.05924060695718637</v>
+        <v>0.05618013404311796</v>
       </c>
       <c r="D25">
-        <v>0.006877997638113267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02461676514297955</v>
+      </c>
+      <c r="E25">
+        <v>-0.01313100423944522</v>
+      </c>
+      <c r="F25">
+        <v>0.0801892360385609</v>
+      </c>
+      <c r="G25">
+        <v>0.02479957098302108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01836848075997191</v>
+        <v>0.01388885079738241</v>
       </c>
       <c r="C26">
-        <v>-0.01571783605662052</v>
+        <v>0.01695417990136232</v>
       </c>
       <c r="D26">
-        <v>0.0007280980919643067</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02557201255927043</v>
+      </c>
+      <c r="E26">
+        <v>-0.0304785209181836</v>
+      </c>
+      <c r="F26">
+        <v>0.07368999095263663</v>
+      </c>
+      <c r="G26">
+        <v>-0.01472255965310069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.07890395773159919</v>
+        <v>0.1326455279722941</v>
       </c>
       <c r="C28">
-        <v>0.2296288833776061</v>
+        <v>-0.2457606277463546</v>
       </c>
       <c r="D28">
-        <v>0.00205616715479261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01755749066707966</v>
+      </c>
+      <c r="E28">
+        <v>-0.04789938231573752</v>
+      </c>
+      <c r="F28">
+        <v>0.0560825838206431</v>
+      </c>
+      <c r="G28">
+        <v>0.02107947792320823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01030183184923479</v>
+        <v>0.006029038917359257</v>
       </c>
       <c r="C29">
-        <v>-0.02756558350888411</v>
+        <v>0.02763534307607023</v>
       </c>
       <c r="D29">
-        <v>0.01905476820354342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01989121619894012</v>
+      </c>
+      <c r="E29">
+        <v>-0.03032136019460254</v>
+      </c>
+      <c r="F29">
+        <v>0.08850951154161472</v>
+      </c>
+      <c r="G29">
+        <v>0.003374381787703442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0545690936930909</v>
+        <v>0.04244359856228134</v>
       </c>
       <c r="C30">
-        <v>-0.05792065009940559</v>
+        <v>0.0648737526348554</v>
       </c>
       <c r="D30">
-        <v>-0.05742862959182248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1071214140869099</v>
+      </c>
+      <c r="E30">
+        <v>-0.0463046326166518</v>
+      </c>
+      <c r="F30">
+        <v>0.1026171627265405</v>
+      </c>
+      <c r="G30">
+        <v>-0.0145090631359715</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05467580115092964</v>
+        <v>0.05487721712020319</v>
       </c>
       <c r="C31">
-        <v>-0.03177767023080688</v>
+        <v>0.0544723962808562</v>
       </c>
       <c r="D31">
-        <v>0.02152500898094185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01080904950560709</v>
+      </c>
+      <c r="E31">
+        <v>-0.04971541103297177</v>
+      </c>
+      <c r="F31">
+        <v>0.08109656521356717</v>
+      </c>
+      <c r="G31">
+        <v>0.04714471729263193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005330188797605044</v>
+        <v>0.004908363889164774</v>
       </c>
       <c r="C32">
-        <v>-0.04510880878437746</v>
+        <v>0.03374760772428195</v>
       </c>
       <c r="D32">
-        <v>-0.02763094831760165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05009376442087091</v>
+      </c>
+      <c r="E32">
+        <v>-0.0265597697887331</v>
+      </c>
+      <c r="F32">
+        <v>0.07294644179660099</v>
+      </c>
+      <c r="G32">
+        <v>-0.01158297705006111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02942228814571014</v>
+        <v>0.02472066302348188</v>
       </c>
       <c r="C33">
-        <v>-0.06069913442125206</v>
+        <v>0.05531352804511062</v>
       </c>
       <c r="D33">
-        <v>-0.03608799973115169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07871320327382759</v>
+      </c>
+      <c r="E33">
+        <v>-0.05511634466359753</v>
+      </c>
+      <c r="F33">
+        <v>0.1273141996310738</v>
+      </c>
+      <c r="G33">
+        <v>0.01919075752693045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04587892890603572</v>
+        <v>0.04145464580528577</v>
       </c>
       <c r="C34">
-        <v>-0.06394148226242986</v>
+        <v>0.06336749914869569</v>
       </c>
       <c r="D34">
-        <v>-0.001604404203761161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03423318076842354</v>
+      </c>
+      <c r="E34">
+        <v>0.004928858524648423</v>
+      </c>
+      <c r="F34">
+        <v>0.07737771878703546</v>
+      </c>
+      <c r="G34">
+        <v>0.01018417540709293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01475947585094708</v>
+        <v>0.01298216634557327</v>
       </c>
       <c r="C36">
-        <v>-0.01611296283057256</v>
+        <v>0.01269400734628807</v>
       </c>
       <c r="D36">
-        <v>0.001708533005132452</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02674551576535303</v>
+      </c>
+      <c r="E36">
+        <v>-0.036452873905155</v>
+      </c>
+      <c r="F36">
+        <v>0.08100890241535907</v>
+      </c>
+      <c r="G36">
+        <v>0.008477810968759249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03145152951834497</v>
+        <v>0.02436676050521431</v>
       </c>
       <c r="C38">
-        <v>-0.02859651482199067</v>
+        <v>0.0246897598427421</v>
       </c>
       <c r="D38">
-        <v>0.003557422241165011</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02521379478305106</v>
+      </c>
+      <c r="E38">
+        <v>-0.03537180520330245</v>
+      </c>
+      <c r="F38">
+        <v>0.0686391018826281</v>
+      </c>
+      <c r="G38">
+        <v>0.003772025082105867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04537735037879699</v>
+        <v>0.03968967926253821</v>
       </c>
       <c r="C39">
-        <v>-0.07208571006594842</v>
+        <v>0.0682105994166444</v>
       </c>
       <c r="D39">
-        <v>-0.02058005288473283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05297801415754222</v>
+      </c>
+      <c r="E39">
+        <v>-0.0215136092253297</v>
+      </c>
+      <c r="F39">
+        <v>0.09098177797335343</v>
+      </c>
+      <c r="G39">
+        <v>-0.01546102150135829</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01673380487551831</v>
+        <v>0.0156416254378442</v>
       </c>
       <c r="C40">
-        <v>-0.03871778624158968</v>
+        <v>0.04080339401497055</v>
       </c>
       <c r="D40">
-        <v>-0.03250751881635901</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03794665015206217</v>
+      </c>
+      <c r="E40">
+        <v>-0.07310612345669683</v>
+      </c>
+      <c r="F40">
+        <v>0.08520149140907071</v>
+      </c>
+      <c r="G40">
+        <v>0.04327816294112072</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01526846268368704</v>
+        <v>0.01750475612772491</v>
       </c>
       <c r="C41">
-        <v>-0.0115917396591983</v>
+        <v>0.006648736744861275</v>
       </c>
       <c r="D41">
-        <v>0.004721406384152083</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0148314211189905</v>
+      </c>
+      <c r="E41">
+        <v>-0.03971677188133264</v>
+      </c>
+      <c r="F41">
+        <v>0.0705286187951553</v>
+      </c>
+      <c r="G41">
+        <v>0.00201546956803464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.0007045144416524189</v>
+        <v>0.000598617197999851</v>
       </c>
       <c r="C42">
-        <v>-0.006445780214707816</v>
+        <v>0.003570226649381905</v>
       </c>
       <c r="D42">
-        <v>-0.007133620042476735</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.001192980078149703</v>
+      </c>
+      <c r="E42">
+        <v>-0.006179521201122761</v>
+      </c>
+      <c r="F42">
+        <v>-0.005458306105077278</v>
+      </c>
+      <c r="G42">
+        <v>-0.0008753681018279804</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03568873919351544</v>
+        <v>0.02865825042420472</v>
       </c>
       <c r="C43">
-        <v>-0.02484626715403262</v>
+        <v>0.02181690802367242</v>
       </c>
       <c r="D43">
-        <v>-0.0112863096709763</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03881328897235163</v>
+      </c>
+      <c r="E43">
+        <v>-0.0464042822370491</v>
+      </c>
+      <c r="F43">
+        <v>0.08501541535493094</v>
+      </c>
+      <c r="G43">
+        <v>0.02169197671552545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02136606929225256</v>
+        <v>0.01426930669338525</v>
       </c>
       <c r="C44">
-        <v>-0.05763501192460763</v>
+        <v>0.05264646607018252</v>
       </c>
       <c r="D44">
-        <v>-0.01332190056860464</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03878679604967337</v>
+      </c>
+      <c r="E44">
+        <v>-0.05971400622623244</v>
+      </c>
+      <c r="F44">
+        <v>0.08784656545064434</v>
+      </c>
+      <c r="G44">
+        <v>-0.003621925593230742</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.00554219967952595</v>
+        <v>0.007597853925895554</v>
       </c>
       <c r="C46">
-        <v>-0.02256001491862026</v>
+        <v>0.02587106286424664</v>
       </c>
       <c r="D46">
-        <v>0.02558351746794059</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01140366277513444</v>
+      </c>
+      <c r="E46">
+        <v>-0.03453756141496019</v>
+      </c>
+      <c r="F46">
+        <v>0.1029815929863486</v>
+      </c>
+      <c r="G46">
+        <v>-0.0008743514863993346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08451570058477148</v>
+        <v>0.08729103477747739</v>
       </c>
       <c r="C47">
-        <v>-0.06694127536011847</v>
+        <v>0.07942685709170279</v>
       </c>
       <c r="D47">
-        <v>0.01832553690657265</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01767809505287834</v>
+      </c>
+      <c r="E47">
+        <v>-0.05551415077535374</v>
+      </c>
+      <c r="F47">
+        <v>0.07969470461162745</v>
+      </c>
+      <c r="G47">
+        <v>0.04964196949689185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02074262691547556</v>
+        <v>0.01569294986613671</v>
       </c>
       <c r="C48">
-        <v>-0.01316138672075065</v>
+        <v>0.0178539564501996</v>
       </c>
       <c r="D48">
-        <v>0.01125485520104532</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01655791116865234</v>
+      </c>
+      <c r="E48">
+        <v>-0.04780578435245009</v>
+      </c>
+      <c r="F48">
+        <v>0.09549685389789778</v>
+      </c>
+      <c r="G48">
+        <v>0.007593474181763376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08569315378235176</v>
+        <v>0.07109693848434977</v>
       </c>
       <c r="C50">
-        <v>-0.06627531857127356</v>
+        <v>0.07118011163274976</v>
       </c>
       <c r="D50">
-        <v>0.02731352829400596</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.005962132806341712</v>
+      </c>
+      <c r="E50">
+        <v>-0.05403906186498848</v>
+      </c>
+      <c r="F50">
+        <v>0.07205658746609658</v>
+      </c>
+      <c r="G50">
+        <v>0.0719536768433766</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01654827106415861</v>
+        <v>0.01074139071060411</v>
       </c>
       <c r="C51">
-        <v>-0.04739737821915225</v>
+        <v>0.03416615002968171</v>
       </c>
       <c r="D51">
-        <v>-0.01163233553906496</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0478804968016783</v>
+      </c>
+      <c r="E51">
+        <v>-0.02462719711756027</v>
+      </c>
+      <c r="F51">
+        <v>0.08187266692524844</v>
+      </c>
+      <c r="G51">
+        <v>-0.02036666769726765</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08673521162618887</v>
+        <v>0.09423916760479718</v>
       </c>
       <c r="C53">
-        <v>-0.06948832641137868</v>
+        <v>0.08567588651899125</v>
       </c>
       <c r="D53">
-        <v>0.03386504717095531</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04099069014628948</v>
+      </c>
+      <c r="E53">
+        <v>-0.05204100576074577</v>
+      </c>
+      <c r="F53">
+        <v>0.0889882755039731</v>
+      </c>
+      <c r="G53">
+        <v>0.06137306864660368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03372394622274592</v>
+        <v>0.02820828787355202</v>
       </c>
       <c r="C54">
-        <v>-0.02438551713945044</v>
+        <v>0.02690052839471016</v>
       </c>
       <c r="D54">
-        <v>0.0002716596004766689</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03031224261288532</v>
+      </c>
+      <c r="E54">
+        <v>-0.04278017067600022</v>
+      </c>
+      <c r="F54">
+        <v>0.09570987026464085</v>
+      </c>
+      <c r="G54">
+        <v>0.004480941183713004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07793618306299482</v>
+        <v>0.08538915429056433</v>
       </c>
       <c r="C55">
-        <v>-0.05473572404333091</v>
+        <v>0.06933304728473404</v>
       </c>
       <c r="D55">
-        <v>0.03890184042490705</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04821248905368776</v>
+      </c>
+      <c r="E55">
+        <v>-0.0428258214210895</v>
+      </c>
+      <c r="F55">
+        <v>0.06406870158918322</v>
+      </c>
+      <c r="G55">
+        <v>0.05073120781182064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1509439933528114</v>
+        <v>0.1470956665399515</v>
       </c>
       <c r="C56">
-        <v>-0.08376790347499349</v>
+        <v>0.1032602780953882</v>
       </c>
       <c r="D56">
-        <v>0.04191790162035115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05185077572066628</v>
+      </c>
+      <c r="E56">
+        <v>-0.0457422517525668</v>
+      </c>
+      <c r="F56">
+        <v>0.0500698689185987</v>
+      </c>
+      <c r="G56">
+        <v>0.05855372102847294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.001817795433068297</v>
+        <v>0.0007036128363634457</v>
       </c>
       <c r="C57">
-        <v>-0.00133847027248843</v>
+        <v>0.0009215124807717895</v>
       </c>
       <c r="D57">
-        <v>-0.02092958646528196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01690835615582564</v>
+      </c>
+      <c r="E57">
+        <v>-0.009811203822546631</v>
+      </c>
+      <c r="F57">
+        <v>0.01006224282646428</v>
+      </c>
+      <c r="G57">
+        <v>0.005180350207494956</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.07050431051100339</v>
+        <v>0.02887064469179455</v>
       </c>
       <c r="C58">
-        <v>-0.02114589777753935</v>
+        <v>0.04077744881824873</v>
       </c>
       <c r="D58">
-        <v>-0.8804798118436681</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4591212814585691</v>
+      </c>
+      <c r="E58">
+        <v>-0.6996461353989749</v>
+      </c>
+      <c r="F58">
+        <v>-0.4641102112653452</v>
+      </c>
+      <c r="G58">
+        <v>-0.04469119167956434</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1266175012439235</v>
+        <v>0.1436188648580788</v>
       </c>
       <c r="C59">
-        <v>0.2063722617537894</v>
+        <v>-0.1868894204311563</v>
       </c>
       <c r="D59">
-        <v>-0.01912349459747868</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03189406085895818</v>
+      </c>
+      <c r="E59">
+        <v>-0.02792084186993437</v>
+      </c>
+      <c r="F59">
+        <v>0.02204690929833157</v>
+      </c>
+      <c r="G59">
+        <v>-0.0287670133384451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3158319200833516</v>
+        <v>0.2839282418315132</v>
       </c>
       <c r="C60">
-        <v>-0.08030209681670988</v>
+        <v>0.09590508144535263</v>
       </c>
       <c r="D60">
-        <v>-0.04740305778015576</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2116716420625892</v>
+      </c>
+      <c r="E60">
+        <v>0.2678933723165146</v>
+      </c>
+      <c r="F60">
+        <v>-0.1115544122110489</v>
+      </c>
+      <c r="G60">
+        <v>0.04641584169336373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04364823060916671</v>
+        <v>0.04112699197675868</v>
       </c>
       <c r="C61">
-        <v>-0.06380393346354736</v>
+        <v>0.06192524642393227</v>
       </c>
       <c r="D61">
-        <v>-0.01140864356511048</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04532079755829697</v>
+      </c>
+      <c r="E61">
+        <v>-0.02443691611468651</v>
+      </c>
+      <c r="F61">
+        <v>0.08181084661610871</v>
+      </c>
+      <c r="G61">
+        <v>0.01062925091886579</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01750531777403933</v>
+        <v>0.01530468349581899</v>
       </c>
       <c r="C63">
-        <v>-0.03561603198562968</v>
+        <v>0.03270444029722124</v>
       </c>
       <c r="D63">
-        <v>0.00549942145865268</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02235970528767827</v>
+      </c>
+      <c r="E63">
+        <v>-0.03922895783409102</v>
+      </c>
+      <c r="F63">
+        <v>0.0771238093573398</v>
+      </c>
+      <c r="G63">
+        <v>0.027347381678047</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05103351173599388</v>
+        <v>0.0557843726384196</v>
       </c>
       <c r="C64">
-        <v>-0.0375070972085565</v>
+        <v>0.05399787066903931</v>
       </c>
       <c r="D64">
-        <v>0.009248815687555711</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.005851657647506675</v>
+      </c>
+      <c r="E64">
+        <v>-0.02055894024164135</v>
+      </c>
+      <c r="F64">
+        <v>0.08612927398640374</v>
+      </c>
+      <c r="G64">
+        <v>0.008383507373715533</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09478167936455383</v>
+        <v>0.06978539812783313</v>
       </c>
       <c r="C65">
-        <v>-0.02500710711876845</v>
+        <v>0.03223015779617604</v>
       </c>
       <c r="D65">
-        <v>-0.04275009188530087</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0864302985712528</v>
+      </c>
+      <c r="E65">
+        <v>-0.03602211197113049</v>
+      </c>
+      <c r="F65">
+        <v>0.01611115192900875</v>
+      </c>
+      <c r="G65">
+        <v>0.001621411897684591</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06592650132187201</v>
+        <v>0.05276513567987524</v>
       </c>
       <c r="C66">
-        <v>-0.1021216634232052</v>
+        <v>0.09031577807282029</v>
       </c>
       <c r="D66">
-        <v>-0.03510190045134393</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08013511857583118</v>
+      </c>
+      <c r="E66">
+        <v>-0.02571995775208203</v>
+      </c>
+      <c r="F66">
+        <v>0.09262669821262277</v>
+      </c>
+      <c r="G66">
+        <v>0.001855425382144889</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05290851390682162</v>
+        <v>0.04647695888565383</v>
       </c>
       <c r="C67">
-        <v>-0.03268241795759798</v>
+        <v>0.03032593340030485</v>
       </c>
       <c r="D67">
-        <v>0.007846730716151565</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01159934244752821</v>
+      </c>
+      <c r="E67">
+        <v>-0.01754271185140599</v>
+      </c>
+      <c r="F67">
+        <v>0.05440381397878004</v>
+      </c>
+      <c r="G67">
+        <v>0.01070924530348039</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1078262394127853</v>
+        <v>0.1485550591006255</v>
       </c>
       <c r="C68">
-        <v>0.2927109582170735</v>
+        <v>-0.2530943597645078</v>
       </c>
       <c r="D68">
-        <v>0.004153498302712116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01806807842067009</v>
+      </c>
+      <c r="E68">
+        <v>-0.04246710510240167</v>
+      </c>
+      <c r="F68">
+        <v>0.01728266936717739</v>
+      </c>
+      <c r="G68">
+        <v>0.01090481104399373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09030608884890862</v>
+        <v>0.08743798364282147</v>
       </c>
       <c r="C69">
-        <v>-0.06443227952150923</v>
+        <v>0.08509932079694947</v>
       </c>
       <c r="D69">
-        <v>0.04268750275436303</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01183921557947265</v>
+      </c>
+      <c r="E69">
+        <v>-0.0328992190087637</v>
+      </c>
+      <c r="F69">
+        <v>0.09689911021487223</v>
+      </c>
+      <c r="G69">
+        <v>0.02678630769497514</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1060643994842013</v>
+        <v>0.1408131932951978</v>
       </c>
       <c r="C71">
-        <v>0.2519240178474182</v>
+        <v>-0.2341364892804426</v>
       </c>
       <c r="D71">
-        <v>-0.02636787867120721</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0148308564616584</v>
+      </c>
+      <c r="E71">
+        <v>-0.06429477085050085</v>
+      </c>
+      <c r="F71">
+        <v>0.05635925027927294</v>
+      </c>
+      <c r="G71">
+        <v>0.03351387719735512</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09028990527515546</v>
+        <v>0.09734278884039767</v>
       </c>
       <c r="C72">
-        <v>-0.04758607416826838</v>
+        <v>0.05546699069115662</v>
       </c>
       <c r="D72">
-        <v>0.008454625544614632</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02017199422059401</v>
+      </c>
+      <c r="E72">
+        <v>-0.01030687608890298</v>
+      </c>
+      <c r="F72">
+        <v>0.08000241898364667</v>
+      </c>
+      <c r="G72">
+        <v>0.02720759394368319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4225742772719243</v>
+        <v>0.3473124102949125</v>
       </c>
       <c r="C73">
-        <v>-0.04255257204007563</v>
+        <v>0.07615970790244486</v>
       </c>
       <c r="D73">
-        <v>-0.1869986368433945</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4501933957963749</v>
+      </c>
+      <c r="E73">
+        <v>0.4711401460273495</v>
+      </c>
+      <c r="F73">
+        <v>-0.287566599179603</v>
+      </c>
+      <c r="G73">
+        <v>0.1040437985226192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1170519991581565</v>
+        <v>0.1119952490211753</v>
       </c>
       <c r="C74">
-        <v>-0.09892310241684957</v>
+        <v>0.09852122499917518</v>
       </c>
       <c r="D74">
-        <v>0.01638048951947954</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03180872651105029</v>
+      </c>
+      <c r="E74">
+        <v>-0.06239438093597559</v>
+      </c>
+      <c r="F74">
+        <v>0.05363737067388486</v>
+      </c>
+      <c r="G74">
+        <v>0.07170334977893233</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2515748188204991</v>
+        <v>0.2583862965514702</v>
       </c>
       <c r="C75">
-        <v>-0.1043207696760646</v>
+        <v>0.1318646125821783</v>
       </c>
       <c r="D75">
-        <v>0.06462751180238133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1314306423483338</v>
+      </c>
+      <c r="E75">
+        <v>-0.07098904453573589</v>
+      </c>
+      <c r="F75">
+        <v>0.01617029630029138</v>
+      </c>
+      <c r="G75">
+        <v>0.07597073253187245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1183330534118435</v>
+        <v>0.1293469853858347</v>
       </c>
       <c r="C76">
-        <v>-0.08908583981378594</v>
+        <v>0.1005802165018468</v>
       </c>
       <c r="D76">
-        <v>0.03390407445269422</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05933679386694914</v>
+      </c>
+      <c r="E76">
+        <v>-0.06673819813340244</v>
+      </c>
+      <c r="F76">
+        <v>0.06950935877576489</v>
+      </c>
+      <c r="G76">
+        <v>0.0608533129250477</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07909677543255077</v>
+        <v>0.06247182401125129</v>
       </c>
       <c r="C77">
-        <v>-0.05377161884135314</v>
+        <v>0.06983723110001699</v>
       </c>
       <c r="D77">
-        <v>-0.05268720040676469</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06330446516226061</v>
+      </c>
+      <c r="E77">
+        <v>-0.07119640117284003</v>
+      </c>
+      <c r="F77">
+        <v>0.118509348338397</v>
+      </c>
+      <c r="G77">
+        <v>-0.1393291115307946</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05059812430839176</v>
+        <v>0.04370463529551934</v>
       </c>
       <c r="C78">
-        <v>-0.04447444848580386</v>
+        <v>0.05570209363876524</v>
       </c>
       <c r="D78">
-        <v>-0.02034138539764603</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07283460989313964</v>
+      </c>
+      <c r="E78">
+        <v>-0.02690171933489438</v>
+      </c>
+      <c r="F78">
+        <v>0.1031742875886089</v>
+      </c>
+      <c r="G78">
+        <v>0.002740927599712636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02543542413241718</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03777716769522819</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06153782400267418</v>
+      </c>
+      <c r="E79">
+        <v>-0.04960641186691453</v>
+      </c>
+      <c r="F79">
+        <v>0.04213746711199858</v>
+      </c>
+      <c r="G79">
+        <v>0.06453250154711536</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04713716917249133</v>
+        <v>0.03503750576062488</v>
       </c>
       <c r="C80">
-        <v>-0.04907504004918024</v>
+        <v>0.05500073475840602</v>
       </c>
       <c r="D80">
-        <v>-0.0325635339379273</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04673245981129831</v>
+      </c>
+      <c r="E80">
+        <v>-0.01295967380133487</v>
+      </c>
+      <c r="F80">
+        <v>0.03585521383102259</v>
+      </c>
+      <c r="G80">
+        <v>-0.04718422084190131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.141742426494146</v>
+        <v>0.1412251247375511</v>
       </c>
       <c r="C81">
-        <v>-0.06805724869145452</v>
+        <v>0.09492035901779132</v>
       </c>
       <c r="D81">
-        <v>0.03796619286887147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09832443813993064</v>
+      </c>
+      <c r="E81">
+        <v>-0.08035608208366395</v>
+      </c>
+      <c r="F81">
+        <v>0.0188147684689545</v>
+      </c>
+      <c r="G81">
+        <v>0.05584014565481085</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1584416536588148</v>
+        <v>0.201694494820568</v>
       </c>
       <c r="C82">
-        <v>-0.05468350587114256</v>
+        <v>0.1334071830754512</v>
       </c>
       <c r="D82">
-        <v>0.1372914629472543</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2313052048707527</v>
+      </c>
+      <c r="E82">
+        <v>-0.007594903306756291</v>
+      </c>
+      <c r="F82">
+        <v>0.08681528478959954</v>
+      </c>
+      <c r="G82">
+        <v>0.03987466887168819</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03234357654369891</v>
+        <v>0.02781842007602855</v>
       </c>
       <c r="C83">
-        <v>-0.0188239133285319</v>
+        <v>0.04028787533033091</v>
       </c>
       <c r="D83">
-        <v>-0.02209728261196763</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0343652330114796</v>
+      </c>
+      <c r="E83">
+        <v>-0.009397878213634801</v>
+      </c>
+      <c r="F83">
+        <v>0.05135287880844559</v>
+      </c>
+      <c r="G83">
+        <v>-0.02055630599838701</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2223764787653775</v>
+        <v>0.20527474525813</v>
       </c>
       <c r="C85">
-        <v>-0.1006884385512559</v>
+        <v>0.1187252054028365</v>
       </c>
       <c r="D85">
-        <v>0.0986901372215335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1021893922898975</v>
+      </c>
+      <c r="E85">
+        <v>-0.00195455152504082</v>
+      </c>
+      <c r="F85">
+        <v>-0.01635593754605879</v>
+      </c>
+      <c r="G85">
+        <v>0.1306384289688532</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01162902276416768</v>
+        <v>0.01147080477078614</v>
       </c>
       <c r="C86">
-        <v>-0.03435821029998328</v>
+        <v>0.03131902266133477</v>
       </c>
       <c r="D86">
-        <v>-0.03917657540173151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07059960464098054</v>
+      </c>
+      <c r="E86">
+        <v>-0.04877733286846095</v>
+      </c>
+      <c r="F86">
+        <v>0.1365016686010897</v>
+      </c>
+      <c r="G86">
+        <v>-0.01212384559811798</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02276916292467513</v>
+        <v>0.02142426425211669</v>
       </c>
       <c r="C87">
-        <v>-0.01742147708139528</v>
+        <v>0.02169305531362756</v>
       </c>
       <c r="D87">
-        <v>-0.0935174529163284</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09168715833943497</v>
+      </c>
+      <c r="E87">
+        <v>-0.094333686677361</v>
+      </c>
+      <c r="F87">
+        <v>0.09130048929541154</v>
+      </c>
+      <c r="G87">
+        <v>-0.037904483058286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1061584929608817</v>
+        <v>0.09182284664448746</v>
       </c>
       <c r="C88">
-        <v>-0.06746954129944037</v>
+        <v>0.06205480274455519</v>
       </c>
       <c r="D88">
-        <v>0.0196362378246785</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.009944998334390047</v>
+      </c>
+      <c r="E88">
+        <v>-0.03662007982958421</v>
+      </c>
+      <c r="F88">
+        <v>0.07328508204463173</v>
+      </c>
+      <c r="G88">
+        <v>-0.03082673842607899</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1679025387814479</v>
+        <v>0.2200929064134908</v>
       </c>
       <c r="C89">
-        <v>0.3836326527952129</v>
+        <v>-0.3820267446382432</v>
       </c>
       <c r="D89">
-        <v>0.02824825695679875</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01231181746726006</v>
+      </c>
+      <c r="E89">
+        <v>-0.03838631574568133</v>
+      </c>
+      <c r="F89">
+        <v>0.09588784906955487</v>
+      </c>
+      <c r="G89">
+        <v>-0.06515567211163575</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.162775267600545</v>
+        <v>0.1986761008946073</v>
       </c>
       <c r="C90">
-        <v>0.3541079293717849</v>
+        <v>-0.3167393088206845</v>
       </c>
       <c r="D90">
-        <v>0.01526593725276574</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01191912314701644</v>
+      </c>
+      <c r="E90">
+        <v>-0.06787363631940474</v>
+      </c>
+      <c r="F90">
+        <v>0.0456622846498872</v>
+      </c>
+      <c r="G90">
+        <v>-0.01218745897036534</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1904395048438481</v>
+        <v>0.1871182730214865</v>
       </c>
       <c r="C91">
-        <v>-0.1111043643561287</v>
+        <v>0.138299242941812</v>
       </c>
       <c r="D91">
-        <v>0.06240541168410952</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.107528718372589</v>
+      </c>
+      <c r="E91">
+        <v>-0.06320261935854538</v>
+      </c>
+      <c r="F91">
+        <v>0.03529435934397075</v>
+      </c>
+      <c r="G91">
+        <v>0.0583280649760705</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1523217962527717</v>
+        <v>0.1803896214820827</v>
       </c>
       <c r="C92">
-        <v>0.2978593417407809</v>
+        <v>-0.2839287289084345</v>
       </c>
       <c r="D92">
-        <v>0.01253621645704475</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.003269890622372504</v>
+      </c>
+      <c r="E92">
+        <v>-0.06680763361887114</v>
+      </c>
+      <c r="F92">
+        <v>0.08208644049405345</v>
+      </c>
+      <c r="G92">
+        <v>-0.009533477984026584</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1849102663397864</v>
+        <v>0.2226980690673283</v>
       </c>
       <c r="C93">
-        <v>0.3461324669117017</v>
+        <v>-0.3208163757264707</v>
       </c>
       <c r="D93">
-        <v>0.007587064112994955</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0008247306190792155</v>
+      </c>
+      <c r="E93">
+        <v>-0.05275133741701866</v>
+      </c>
+      <c r="F93">
+        <v>0.04293405300930751</v>
+      </c>
+      <c r="G93">
+        <v>0.02665143289171512</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3388217302838515</v>
+        <v>0.3440428556483999</v>
       </c>
       <c r="C94">
-        <v>-0.1330923691040978</v>
+        <v>0.1830600021879567</v>
       </c>
       <c r="D94">
-        <v>0.2818155131985261</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4805085848497843</v>
+      </c>
+      <c r="E94">
+        <v>-0.1243721933963357</v>
+      </c>
+      <c r="F94">
+        <v>-0.4439174111481687</v>
+      </c>
+      <c r="G94">
+        <v>-0.3209183549075555</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1112126832760394</v>
+        <v>0.08572559557745464</v>
       </c>
       <c r="C95">
-        <v>-0.07733914840842554</v>
+        <v>0.06639491771268827</v>
       </c>
       <c r="D95">
-        <v>-0.06672784440774221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1609863512229956</v>
+      </c>
+      <c r="E95">
+        <v>0.1216381215545864</v>
+      </c>
+      <c r="F95">
+        <v>0.1850388871083509</v>
+      </c>
+      <c r="G95">
+        <v>-0.8707973373328931</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1983793065121931</v>
+        <v>0.1875949845481858</v>
       </c>
       <c r="C98">
-        <v>-0.01684107254737371</v>
+        <v>0.04201938558727127</v>
       </c>
       <c r="D98">
-        <v>-0.07936781458033296</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1827379020727979</v>
+      </c>
+      <c r="E98">
+        <v>0.151128871968994</v>
+      </c>
+      <c r="F98">
+        <v>-0.04557795907758624</v>
+      </c>
+      <c r="G98">
+        <v>0.1012888186509198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01021752988448142</v>
+        <v>0.006076096160234372</v>
       </c>
       <c r="C101">
-        <v>-0.02755606861648079</v>
+        <v>0.02738271267764693</v>
       </c>
       <c r="D101">
-        <v>0.01933375583799683</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01939189027544332</v>
+      </c>
+      <c r="E101">
+        <v>-0.03102088764110804</v>
+      </c>
+      <c r="F101">
+        <v>0.08830938747309931</v>
+      </c>
+      <c r="G101">
+        <v>0.002317369537182932</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1245691828550607</v>
+        <v>0.1252046422989836</v>
       </c>
       <c r="C102">
-        <v>-0.07090485917346256</v>
+        <v>0.09903215574821829</v>
       </c>
       <c r="D102">
-        <v>0.03243523550499547</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0501053140208705</v>
+      </c>
+      <c r="E102">
+        <v>0.008581494137181548</v>
+      </c>
+      <c r="F102">
+        <v>0.03924984880873517</v>
+      </c>
+      <c r="G102">
+        <v>0.02206718065419412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
